--- a/SmartHospitals_Cucumber/src/test/resources/PatientAppointmentData.xlsx
+++ b/SmartHospitals_Cucumber/src/test/resources/PatientAppointmentData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhanusheswaran M\git\Smart_Hospital_Cucumber_Project\SmartHospitals_Cucumber\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB44D211-2402-4577-81B7-756E9609C0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71A2C94-F296-49E0-BD18-BCDE1376AF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>I would like to schedule a routine heart check-up to monitor my cardiovascular health.</t>
+  </si>
+  <si>
+    <t>AvailableSlot</t>
+  </si>
+  <si>
+    <t>06/22/2025</t>
   </si>
 </sst>
 </file>
@@ -93,9 +99,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,23 +387,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="72.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,12 +421,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>46001</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -428,7 +443,10 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/SmartHospitals_Cucumber/src/test/resources/PatientAppointmentData.xlsx
+++ b/SmartHospitals_Cucumber/src/test/resources/PatientAppointmentData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhanusheswaran M\git\Smart_Hospital_Cucumber_Project\SmartHospitals_Cucumber\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71A2C94-F296-49E0-BD18-BCDE1376AF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C955403-F759-445C-8242-33A15E8718FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,10 +70,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -387,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G2"/>
@@ -450,7 +456,36 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="F9" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SmartHospitals_Cucumber/src/test/resources/PatientAppointmentData.xlsx
+++ b/SmartHospitals_Cucumber/src/test/resources/PatientAppointmentData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhanusheswaran M\git\Smart_Hospital_Cucumber_Project\SmartHospitals_Cucumber\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C955403-F759-445C-8242-33A15E8718FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A672AE0-A3AE-4A8B-990C-D8D22CEA7A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12324" yWindow="1164" windowWidth="8496" windowHeight="10968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SmartHospitals_Cucumber/src/test/resources/PatientAppointmentData.xlsx
+++ b/SmartHospitals_Cucumber/src/test/resources/PatientAppointmentData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhanusheswaran M\git\Smart_Hospital_Cucumber_Project\SmartHospitals_Cucumber\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A672AE0-A3AE-4A8B-990C-D8D22CEA7A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4EF91E-3CB2-4A33-888E-C51E34612E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12324" yWindow="1164" windowWidth="8496" windowHeight="10968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>AvailableSlot</t>
   </si>
   <si>
-    <t>06/22/2025</t>
+    <t>06-22-2025</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SmartHospitals_Cucumber/src/test/resources/PatientAppointmentData.xlsx
+++ b/SmartHospitals_Cucumber/src/test/resources/PatientAppointmentData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhanusheswaran M\git\Smart_Hospital_Cucumber_Project\SmartHospitals_Cucumber\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhanusheswaran M\git\Smart_Hospital_Cucumber_Project\Smart_Hospital_Cucumber_Project\SmartHospitals_Cucumber\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4EF91E-3CB2-4A33-888E-C51E34612E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D3A74A-23FD-4F64-AD68-04C88C4FE7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12324" yWindow="1164" windowWidth="8496" windowHeight="10968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>AvailableSlot</t>
   </si>
   <si>
-    <t>06-22-2025</t>
+    <t>06/22/2025</t>
   </si>
 </sst>
 </file>
@@ -105,12 +105,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -396,7 +399,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,7 +437,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
